--- a/app/didit.xlsx
+++ b/app/didit.xlsx
@@ -47,7 +47,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -71,9 +71,63 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -81,26 +135,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -400,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,167 +503,779 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Тип</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Уровень сахара до</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Уровень сахара после</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Время</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>Продукт</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Масса (в граммах)</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Белки</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>Углеводы</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>Жиры</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>Энергетическая ценность</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>Микроэлементы</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>Вода</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="N3" s="2" t="inlineStr">
         <is>
           <t>МДС</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>Крахмал</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr">
         <is>
           <t>Пиш. волокна</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>Орган. кислота</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Зола</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="S3" s="2" t="inlineStr">
         <is>
           <t>Натрий</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="T3" s="2" t="inlineStr">
         <is>
           <t>Калий</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="U3" s="2" t="inlineStr">
         <is>
           <t>Кальций</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="V3" s="2" t="inlineStr">
         <is>
           <t>Магний</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="W3" s="2" t="inlineStr">
         <is>
           <t>Фосфор</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="X3" s="2" t="inlineStr">
         <is>
           <t>Железо</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="Y3" s="2" t="inlineStr">
         <is>
           <t>Ретинол</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="Z3" s="2" t="inlineStr">
         <is>
           <t>Каротин</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
+      <c r="AA3" s="2" t="inlineStr">
         <is>
           <t>Ретиноловый экв.</t>
         </is>
       </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="AB3" s="2" t="inlineStr">
         <is>
           <t>Тиамин</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="AC3" s="2" t="inlineStr">
         <is>
           <t>Рибофлавин</t>
         </is>
       </c>
-      <c r="Z3" s="3" t="inlineStr">
+      <c r="AD3" s="2" t="inlineStr">
         <is>
           <t>Ниацин</t>
         </is>
       </c>
-      <c r="AA3" s="3" t="inlineStr">
+      <c r="AE3" s="2" t="inlineStr">
         <is>
           <t>Аскорбиновая кисл.</t>
         </is>
       </c>
-      <c r="AB3" s="3" t="inlineStr">
+      <c r="AF3" s="2" t="inlineStr">
         <is>
           <t>Холестерин</t>
         </is>
       </c>
-      <c r="AC3" s="3" t="inlineStr">
+      <c r="AG3" s="2" t="inlineStr">
         <is>
           <t>НЖК</t>
         </is>
       </c>
-      <c r="AD3" s="3" t="inlineStr">
+      <c r="AH3" s="2" t="inlineStr">
         <is>
           <t>Ниационвый эквивалент</t>
         </is>
       </c>
-      <c r="AE3" s="3" t="inlineStr">
+      <c r="AI3" s="2" t="inlineStr">
         <is>
           <t>Токоферол эквивалент</t>
         </is>
       </c>
-      <c r="AF3" s="4" t="n"/>
-      <c r="AG3" s="4" t="n"/>
-      <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="L4" s="5" t="n"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>04.07.2020</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Завтрак</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>21:51</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>Лисички
+Опята
+Подберезовики
+Подосиновики</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>150
+150
+150
+150</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>1.5
+2.2
+2.1
+3.3</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>1.0
+0.5
+1.2
+1.2</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>1.0
+1.2
+0.8
+0.5</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>19.0
+22.0
+20.0
+22.0</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>88.5
+90.0
+90.1
+88.1</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>1.0
+0.5
+1.2
+1.2</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>7.0
+5.1
+5.1
+6.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
+        <is>
+          <t>1.0
+1.0
+0.7
+0.9</t>
+        </is>
+      </c>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>3.0
+5.0
+3.0
+6.0</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>450.0
+400.0
+443.0
+404.0</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>4.0
+5.0
+6.0
+3.0</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
+          <t>7.0
+20.0
+15.0
+16.0</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>44.0
+45.0
+171.0
+70.0</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
+        <is>
+          <t>0.7
+0.8
+0.3
+0.3</t>
+        </is>
+      </c>
+      <c r="Y4" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="Z4" s="4" t="inlineStr">
+        <is>
+          <t>850.0
+0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AA4" s="4" t="inlineStr">
+        <is>
+          <t>142.0
+0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AB4" s="4" t="inlineStr">
+        <is>
+          <t>0.01
+0.02
+0.07
+0.02</t>
+        </is>
+      </c>
+      <c r="AC4" s="4" t="inlineStr">
+        <is>
+          <t>0.35
+0.38
+0.22
+0.45</t>
+        </is>
+      </c>
+      <c r="AD4" s="4" t="inlineStr">
+        <is>
+          <t>4.9
+10.3
+6.3
+9.0</t>
+        </is>
+      </c>
+      <c r="AE4" s="4" t="inlineStr">
+        <is>
+          <t>34.0
+11.0
+6.0
+6.0</t>
+        </is>
+      </c>
+      <c r="AF4" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AG4" s="4" t="inlineStr">
+        <is>
+          <t>0.1
+0.2
+0.1
+0.1</t>
+        </is>
+      </c>
+      <c r="AH4" s="4" t="inlineStr">
+        <is>
+          <t>5.0
+10.7
+6.7
+9.8</t>
+        </is>
+      </c>
+      <c r="AI4" s="4" t="inlineStr">
+        <is>
+          <t>0.5
+0.1
+0.1
+0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Обед</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>21:51</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>Зерно мягкой пшеницы</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>305</v>
+      </c>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>337</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>108</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>370</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Ужин</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>21:50</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Омлет из яичного порошка
+Омлет натуральный
+Омлет с жареным картофелем (запеченный)</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>150
+150
+150</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>10.3
+9.6
+6.8</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>1.6
+1.9
+10.2</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>17.0
+15.4
+11.3</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>200.0
+184.0
+170.0</t>
+        </is>
+      </c>
+      <c r="L6" s="7" t="n"/>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>69.5
+70.8
+70.4</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>1.6
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>1.6
+1.9
+1.3</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>504.0
+474.0
+179.0</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>118.0
+143.0
+354.0</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>54.0
+78.0
+32.0</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>11.0
+13.0
+18.0</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>193.0
+182.0
+119.0</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>2.1
+1.9
+1.5</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>210.0
+220.0
+100.0</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>80.0
+80.0
+60.0</t>
+        </is>
+      </c>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>223.0
+233.33
+110.0</t>
+        </is>
+      </c>
+      <c r="AB6" s="4" t="inlineStr">
+        <is>
+          <t>0.05
+0.06
+0.07</t>
+        </is>
+      </c>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t>0.39
+0.36
+0.24</t>
+        </is>
+      </c>
+      <c r="AD6" s="4" t="inlineStr">
+        <is>
+          <t>0.3
+0.17
+0.12</t>
+        </is>
+      </c>
+      <c r="AE6" s="4" t="inlineStr">
+        <is>
+          <t>0.0
+0.2
+6.0</t>
+        </is>
+      </c>
+      <c r="AF6" s="4" t="inlineStr">
+        <is>
+          <t>454.0
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AG6" s="4" t="inlineStr">
+        <is>
+          <t>4.8
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AH6" s="4" t="inlineStr">
+        <is>
+          <t>3.1
+0.0
+0.0</t>
+        </is>
+      </c>
+      <c r="AI6" s="4" t="inlineStr">
+        <is>
+          <t>0.47
+0.0
+0.0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="L4:L6"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
   </mergeCells>
@@ -657,64 +1326,64 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Минуты</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Тип</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Часы</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>28.06.2020</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>Зарядка</t>
         </is>
       </c>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="7" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
